--- a/biology/Biologie cellulaire et moléculaire/Spermatide/Spermatide.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Spermatide/Spermatide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spermatides constituent une des étapes de la spermatogenèse : les spermatocytes II (haploïdes) produisent après la seconde division de méiose les spermatides (haploïdes). 
 Situées près de la lumière du tube séminifère, ce sont des cellules légèrement allongées qui ne se divisent plus. 
